--- a/WPDigitalizer/MQ6/MQ6_Analisis.xlsx
+++ b/WPDigitalizer/MQ6/MQ6_Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB44E86-37EB-4808-9C65-36F5149EE762}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6CFFB9-E470-460B-90C0-9CD5805FA100}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
@@ -187,6 +187,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,15 +209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10610,7 +10610,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -10622,7 +10622,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -10707,16 +10707,16 @@
       <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10724,10 +10724,10 @@
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -10805,7 +10805,7 @@
         <v>67.588562137179565</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E22:E29" si="1">D24/B24</f>
+        <f t="shared" ref="E24:E28" si="1">D24/B24</f>
         <v>6.787263360600182E-2</v>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
         <v>1324.1458273049286</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D22:D29" si="2">ABS(C25-B25)</f>
+        <f t="shared" ref="D25:D29" si="2">ABS(C25-B25)</f>
         <v>216.18441877309147</v>
       </c>
       <c r="E25" s="2">
@@ -10917,10 +10917,10 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
         <v>9.4888201270049599E-2</v>
@@ -10930,7 +10930,7 @@
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -10979,7 +10979,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10987,7 +10987,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11072,16 +11072,16 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11089,10 +11089,10 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -11282,10 +11282,10 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4">
         <f>AVERAGE(E20:E29)</f>
         <v>2.0098720679014345E-2</v>
@@ -11316,7 +11316,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11324,7 +11324,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -11405,16 +11405,16 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11422,10 +11422,10 @@
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -11613,10 +11613,10 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4">
         <f>AVERAGE(E20:E29)</f>
         <v>0.18320632792138353</v>
@@ -11647,7 +11647,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11655,7 +11655,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -11740,16 +11740,16 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11757,10 +11757,10 @@
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -11950,10 +11950,10 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4">
         <f>AVERAGE(E19:E28)</f>
         <v>0.13232132274557826</v>
@@ -11977,14 +11977,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11992,80 +11992,80 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>200.61709699314201</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.9913394573407299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>500.55701475595799</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.3566837790884201</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>793.99515187371401</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.0926008611173701</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>995.81463907130399</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.00988868028081</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>1566.3896969063401</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.82947522476968905</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>1981.0866018373099</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.74438030132516797</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2988.2012017122902</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.63594389635534398</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>4942.98247881938</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.51721988534562302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.39266039037683298</v>
       </c>
     </row>
@@ -12073,16 +12073,16 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12090,16 +12090,16 @@
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>1.9913394573407299</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>200.61709699314201</v>
       </c>
       <c r="C19" s="2">
@@ -12116,10 +12116,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>1.3566837790884201</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>500.55701475595799</v>
       </c>
       <c r="C20" s="2">
@@ -12136,10 +12136,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>1.0926008611173701</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>793.99515187371401</v>
       </c>
       <c r="C21" s="2">
@@ -12156,10 +12156,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>1.00988868028081</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>995.81463907130399</v>
       </c>
       <c r="C22" s="2">
@@ -12176,10 +12176,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>0.82947522476968905</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1566.3896969063401</v>
       </c>
       <c r="C23" s="2">
@@ -12196,10 +12196,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>0.74438030132516797</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>1981.0866018373099</v>
       </c>
       <c r="C24" s="2">
@@ -12216,10 +12216,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>0.63594389635534398</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>2988.2012017122902</v>
       </c>
       <c r="C25" s="2">
@@ -12236,10 +12236,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>0.51721988534562302</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>4942.98247881938</v>
       </c>
       <c r="C26" s="2">
@@ -12256,10 +12256,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>0.39266039037683298</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>10000</v>
       </c>
       <c r="C27" s="2">
@@ -12281,10 +12281,10 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4">
         <f>AVERAGE(E19:E28)</f>
         <v>2.5858657217021738E-2</v>
